--- a/deloittie/config/deloite.xlsx
+++ b/deloittie/config/deloite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>ID</t>
   </si>
@@ -141,19 +141,31 @@
     <t>test05</t>
   </si>
   <si>
-    <t>获取组队中请求记录列表</t>
-  </si>
-  <si>
-    <t>GetTeamUpList</t>
-  </si>
-  <si>
-    <t>getTeamUplist</t>
-  </si>
-  <si>
-    <t>{"page":1,"CurrentServerTime":"2015-08-01T00:00:00"}</t>
-  </si>
-  <si>
-    <t>{"StateCode":1001,"StateMsg":"成功"}</t>
+    <t>邀请入队--手动输入</t>
+  </si>
+  <si>
+    <t>joinTeamByhandle</t>
+  </si>
+  <si>
+    <t>{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":35}</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>同意入队</t>
+  </si>
+  <si>
+    <t>TeamUpStateOperation</t>
+  </si>
+  <si>
+    <t>confirmJoin</t>
+  </si>
+  <si>
+    <t>{"getTeamUplist1":{"method":"GetTeamUpList","thisApi":{"page":1,"CurrentServerTime":"2015-08-01T00:00:00"},"key":{"UserName":"a1@3202.com","password":"a123456"}}}</t>
+  </si>
+  <si>
+    <t>{"AgreeState":1}</t>
   </si>
 </sst>
 </file>
@@ -161,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -235,14 +247,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +290,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,15 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,29 +339,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,23 +350,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,115 +383,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,67 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,15 +574,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,17 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,16 +617,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,15 +651,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -662,6 +659,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -670,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,12 +1218,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1377,45 +1389,68 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:14">
+    <row r="6" ht="40.5" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>42</v>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="94.5" spans="1:14">
+      <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="6:7">
-      <c r="F7" s="9"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="7:7">
+      <c r="F7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="9"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="14.25" spans="6:7">
-      <c r="F9" s="10"/>
+    <row r="9" spans="7:7">
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="7:7">
+    <row r="10" ht="14.25" spans="6:7">
+      <c r="F10" s="10"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="9"/>
+    <row r="11" spans="7:7">
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="6:7">
@@ -1426,7 +1461,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="6:7">
+    <row r="14" spans="6:7">
       <c r="F14" s="9"/>
       <c r="G14" s="2"/>
     </row>
@@ -1434,14 +1469,14 @@
       <c r="F15" s="9"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" ht="14.25" spans="6:8">
-      <c r="F16" s="11"/>
+    <row r="16" s="3" customFormat="1" spans="6:7">
+      <c r="F16" s="9"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" spans="6:7">
+    </row>
+    <row r="17" ht="14.25" spans="6:8">
       <c r="F17" s="11"/>
       <c r="G17" s="2"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="14.25" spans="6:7">
       <c r="F18" s="11"/>
@@ -1459,10 +1494,11 @@
       <c r="F21" s="11"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" ht="14.25" spans="6:7">
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="7:7">
+    <row r="23" spans="7:7">
       <c r="G23" s="2"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="7:7">
@@ -1474,8 +1510,7 @@
     <row r="26" s="3" customFormat="1" spans="7:7">
       <c r="G26" s="2"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="6:7">
-      <c r="F27" s="13"/>
+    <row r="27" s="3" customFormat="1" spans="7:7">
       <c r="G27" s="2"/>
     </row>
     <row r="28" s="3" customFormat="1" spans="6:7">
@@ -1487,14 +1522,15 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" s="3" customFormat="1" spans="6:7">
-      <c r="F30" s="9"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" s="3" customFormat="1" spans="6:7">
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="7:7">
+    <row r="32" s="3" customFormat="1" spans="6:7">
+      <c r="F32" s="9"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" s="3" customFormat="1" spans="7:7">
@@ -1512,8 +1548,7 @@
     <row r="37" s="3" customFormat="1" spans="7:7">
       <c r="G37" s="2"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="6:7">
-      <c r="F38" s="9"/>
+    <row r="38" s="3" customFormat="1" spans="7:7">
       <c r="G38" s="2"/>
     </row>
     <row r="39" s="3" customFormat="1" spans="6:7">
@@ -1536,10 +1571,9 @@
       <c r="F43" s="9"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" s="3" customFormat="1" ht="14.25" spans="6:9">
-      <c r="F44" s="11"/>
+    <row r="44" s="3" customFormat="1" spans="6:7">
+      <c r="F44" s="9"/>
       <c r="G44" s="2"/>
-      <c r="I44" s="14"/>
     </row>
     <row r="45" s="3" customFormat="1" ht="14.25" spans="6:9">
       <c r="F45" s="11"/>
@@ -1555,6 +1589,11 @@
       <c r="F47" s="11"/>
       <c r="G47" s="2"/>
       <c r="I47" s="14"/>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="14.25" spans="6:9">
+      <c r="F48" s="11"/>
+      <c r="G48" s="2"/>
+      <c r="I48" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/deloittie/config/deloite.xlsx
+++ b/deloittie/config/deloite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25410" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>ID</t>
   </si>
@@ -69,103 +69,133 @@
     <t>UserLogin</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>longin1</t>
+  </si>
+  <si>
+    <t>{"UserName":"test06@3202.com","password":"a123456"}</t>
+  </si>
+  <si>
+    <t>{"StateCode":1001,"StateMsg":"成功","CICMemberInfo":"http://deloittefront.test.cn-cic.com"}</t>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>获取用户个人信息</t>
+  </si>
+  <si>
+    <t>GetIdentifyFlagList</t>
+  </si>
+  <si>
+    <t>getOwnerInfo</t>
+  </si>
+  <si>
+    <t>{"Type":0,"ToUserId":0}</t>
+  </si>
+  <si>
+    <t>{"StateCode":1001,"StateMsg":"成功","ResultMessage":"Please configure the hint"}</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>获取参赛人员列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetUserAttendInfo </t>
+  </si>
+  <si>
+    <t>getUserInfo</t>
+  </si>
+  <si>
+    <t>{"IdentifyFlagId":0,"TeamStatus":0,"page":1,"CurrentServerTime":"2015-08-01T00:00:00"}</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>邀请组队</t>
+  </si>
+  <si>
+    <t>TeamInvite</t>
+  </si>
+  <si>
+    <t>joinTeam</t>
+  </si>
+  <si>
+    <t>{"getUserInfo":{"method":"GetUserAttendInfo","thisApi":{"IdentifyFlagId":0,"TeamStatus":0,"page":1,"CurrentServerTime":"2015-08-01T00:00:00"}}}</t>
+  </si>
+  <si>
+    <t>{"TeamName":"接口发出的组队邀请","ToUserMessage":"API,test"}</t>
+  </si>
+  <si>
+    <t>{"StateCode":1001,"StateMsg":"成功","ResultType":1}</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>邀请入队--手动输入</t>
+  </si>
+  <si>
+    <t>joinTeamByhandle</t>
+  </si>
+  <si>
+    <t>{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":35}</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>同意入队</t>
+  </si>
+  <si>
+    <t>TeamUpStateOperation</t>
+  </si>
+  <si>
+    <t>confirmJoin</t>
+  </si>
+  <si>
+    <t>{"getTeamUplist1":{"method":"GetTeamUpList","thisApi":{"page":1,"CurrentServerTime":"2015-08-01T00:00:00"},"key":{"UserName":"a1@3202.com","password":"a123456"}}}</t>
+  </si>
+  <si>
+    <t>{"AgreeState":1}</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>退出队伍</t>
+  </si>
+  <si>
+    <t>TeamRetreat</t>
+  </si>
+  <si>
+    <t>teamRetreat</t>
+  </si>
+  <si>
+    <t>{"GetMyTeamInfo":{"method":"GetMyTeamInfo","thisApi":{"Type":0},"key":{"UserName":"a1@3202.com","password":"a123456"}}}</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>邀請多人組隊</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>longin1</t>
-  </si>
-  <si>
-    <t>{"UserName":"test06@3202.com","password":"a123456"}</t>
-  </si>
-  <si>
-    <t>{"StateCode":1001,"StateMsg":"成功","CICMemberInfo":"http://deloittefront.test.cn-cic.com"}</t>
-  </si>
-  <si>
-    <t>test02</t>
-  </si>
-  <si>
-    <t>获取用户个人信息</t>
-  </si>
-  <si>
-    <t>GetIdentifyFlagList</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>getOwnerInfo</t>
-  </si>
-  <si>
-    <t>{"Type":0,"ToUserId":0}</t>
-  </si>
-  <si>
-    <t>{"StateCode":1001,"StateMsg":"成功","ResultMessage":"Please configure the hint"}</t>
-  </si>
-  <si>
-    <t>test03</t>
-  </si>
-  <si>
-    <t>获取参赛人员列表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetUserAttendInfo </t>
-  </si>
-  <si>
-    <t>getUserInfo</t>
-  </si>
-  <si>
-    <t>{"IdentifyFlagId":0,"TeamStatus":0,"page":1,"CurrentServerTime":"2015-08-01T00:00:00"}</t>
-  </si>
-  <si>
-    <t>test04</t>
-  </si>
-  <si>
-    <t>邀请组队</t>
-  </si>
-  <si>
-    <t>TeamInvite</t>
-  </si>
-  <si>
-    <t>joinTeam</t>
-  </si>
-  <si>
-    <t>{"getUserInfo":{"method":"GetUserAttendInfo","thisApi":{"IdentifyFlagId":0,"TeamStatus":0,"page":1,"CurrentServerTime":"2015-08-01T00:00:00"}}}</t>
-  </si>
-  <si>
-    <t>{"TeamName":"接口发出的组队邀请","ToUserMessage":"API,test"}</t>
-  </si>
-  <si>
-    <t>{"StateCode":1001,"StateMsg":"成功","ResultType":1}</t>
-  </si>
-  <si>
-    <t>test05</t>
-  </si>
-  <si>
-    <t>邀请入队--手动输入</t>
-  </si>
-  <si>
-    <t>joinTeamByhandle</t>
-  </si>
-  <si>
-    <t>{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":35}</t>
-  </si>
-  <si>
-    <t>test06</t>
-  </si>
-  <si>
-    <t>同意入队</t>
-  </si>
-  <si>
-    <t>TeamUpStateOperation</t>
-  </si>
-  <si>
-    <t>confirmJoin</t>
-  </si>
-  <si>
-    <t>{"getTeamUplist1":{"method":"GetTeamUpList","thisApi":{"page":1,"CurrentServerTime":"2015-08-01T00:00:00"},"key":{"UserName":"a1@3202.com","password":"a123456"}}}</t>
-  </si>
-  <si>
-    <t>{"AgreeState":1}</t>
+    <t>ConfirmJoinForManay</t>
+  </si>
+  <si>
+    <t>{"joinTeamByhandle":{"method":"TeamInvite","thisApi":{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":""}},"login1":{"method":"UserLogin","thisApi":{"UserName":"test06@3202.com","password":"a123456"}}}</t>
+  </si>
+  <si>
+    <t>{"UserName":["a1@3202.com","a2@3202.com","a3@3202.com","a4@3202.com"],"ToUserId":[35,36,37,38]}</t>
   </si>
 </sst>
 </file>
@@ -173,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -247,14 +277,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,30 +349,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,28 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -352,23 +398,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,85 +413,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,97 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +604,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,16 +667,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,43 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,16 +724,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,116 +745,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,13 +879,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1220,10 +1247,10 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1327,127 +1354,168 @@
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="54" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:14">
       <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:14">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="94.5" spans="1:14">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:14">
+      <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="9"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="7:7">
-      <c r="G9" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="121.5" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" ht="14.25" spans="6:7">
-      <c r="F10" s="10"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="7:7">
@@ -1474,28 +1542,28 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" ht="14.25" spans="6:8">
-      <c r="F17" s="11"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" ht="14.25" spans="6:7">
-      <c r="F18" s="11"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" ht="14.25" spans="6:7">
-      <c r="F19" s="11"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" ht="14.25" spans="6:7">
-      <c r="F20" s="11"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" ht="14.25" spans="6:7">
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" ht="14.25" spans="6:7">
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="7:7">
@@ -1514,15 +1582,15 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" s="3" customFormat="1" spans="6:7">
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="6:7">
-      <c r="F29" s="13"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" s="3" customFormat="1" spans="6:7">
-      <c r="F30" s="13"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" s="3" customFormat="1" spans="6:7">
@@ -1576,24 +1644,24 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" s="3" customFormat="1" ht="14.25" spans="6:9">
-      <c r="F45" s="11"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="2"/>
-      <c r="I45" s="14"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" s="3" customFormat="1" ht="14.25" spans="6:9">
-      <c r="F46" s="11"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="2"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" s="3" customFormat="1" ht="14.25" spans="6:9">
-      <c r="F47" s="11"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="2"/>
-      <c r="I47" s="14"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" s="3" customFormat="1" ht="14.25" spans="6:9">
-      <c r="F48" s="11"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="2"/>
-      <c r="I48" s="14"/>
+      <c r="I48" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/deloittie/config/deloite.xlsx
+++ b/deloittie/config/deloite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25410" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>ID</t>
   </si>
@@ -39,7 +39,7 @@
     <t>是否执行</t>
   </si>
   <si>
-    <t>执行的方法</t>
+    <t>TeamRetreat</t>
   </si>
   <si>
     <t>依赖接口的所需参数</t>
@@ -168,10 +168,7 @@
     <t>test07</t>
   </si>
   <si>
-    <t>退出队伍</t>
-  </si>
-  <si>
-    <t>TeamRetreat</t>
+    <t>退出隊伍</t>
   </si>
   <si>
     <t>teamRetreat</t>
@@ -192,10 +189,28 @@
     <t>ConfirmJoinForManay</t>
   </si>
   <si>
-    <t>{"joinTeamByhandle":{"method":"TeamInvite","thisApi":{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":""}},"login1":{"method":"UserLogin","thisApi":{"UserName":"test06@3202.com","password":"a123456"}}}</t>
+    <t>{"joinTeamByhandle":{"method":"TeamInvite","thisApi":{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":""}},"login":{"method":"UserLogin","thisApi":{"UserName":"test06@3202.com","password":"a123456"}}}</t>
   </si>
   <si>
     <t>{"UserName":["a1@3202.com","a2@3202.com","a3@3202.com","a4@3202.com"],"ToUserId":[35,36,37,38]}</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>获取组队信息</t>
+  </si>
+  <si>
+    <t>GetTeamUpList</t>
+  </si>
+  <si>
+    <t>getTeamUplist2</t>
+  </si>
+  <si>
+    <t>{"UserName":"a1@3202.com","password":"a123456"}</t>
+  </si>
+  <si>
+    <t>{"page": 1, "CurrentServerTime": "2015-08-01T00:00:00"}</t>
   </si>
 </sst>
 </file>
@@ -203,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -251,9 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
       <charset val="134"/>
     </font>
     <font>
@@ -284,29 +299,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,21 +344,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,39 +357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,20 +374,50 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,11 +624,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,8 +664,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,46 +704,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,16 +739,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,112 +760,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -879,8 +894,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1248,7 +1263,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
@@ -1473,16 +1488,16 @@
         <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>38</v>
@@ -1490,33 +1505,58 @@
     </row>
     <row r="9" ht="121.5" spans="1:14">
       <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>59</v>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="6:7">
-      <c r="F10" s="8"/>
-      <c r="G10" s="2"/>
+    <row r="10" ht="40.5" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="7:7">
       <c r="G11" s="2"/>

--- a/deloittie/config/deloite.xlsx
+++ b/deloittie/config/deloite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>ID</t>
   </si>
@@ -183,34 +183,46 @@
     <t>邀請多人組隊</t>
   </si>
   <si>
+    <t>ConfirmJoinForManay</t>
+  </si>
+  <si>
+    <t>{"joinTeamByhandle":{"method":"TeamInvite","thisApi":{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":""}},"login":{"method":"UserLogin","thisApi":{"UserName":"test06@3202.com","password":"a123456"}}}</t>
+  </si>
+  <si>
+    <t>{"UserName":["a1@3202.com","a2@3202.com","a3@3202.com","a4@3202.com"],"ToUserId":[35,36,37,38]}</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>获取组队信息</t>
+  </si>
+  <si>
+    <t>GetTeamUpList</t>
+  </si>
+  <si>
+    <t>getTeamUplist2</t>
+  </si>
+  <si>
+    <t>{"UserName":"a1@3202.com","password":"a123456"}</t>
+  </si>
+  <si>
+    <t>{"page": 1, "CurrentServerTime": "2015-08-01T00:00:00"}</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>多人申请入队</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>ConfirmJoinForManay</t>
-  </si>
-  <si>
-    <t>{"joinTeamByhandle":{"method":"TeamInvite","thisApi":{"TeamName":"接口发出的组队邀请","ToUserMessage":"APItest","ToUserId":""}},"login":{"method":"UserLogin","thisApi":{"UserName":"test06@3202.com","password":"a123456"}}}</t>
-  </si>
-  <si>
-    <t>{"UserName":["a1@3202.com","a2@3202.com","a3@3202.com","a4@3202.com"],"ToUserId":[35,36,37,38]}</t>
-  </si>
-  <si>
-    <t>test09</t>
-  </si>
-  <si>
-    <t>获取组队信息</t>
-  </si>
-  <si>
-    <t>GetTeamUpList</t>
-  </si>
-  <si>
-    <t>getTeamUplist2</t>
-  </si>
-  <si>
-    <t>{"UserName":"a1@3202.com","password":"a123456"}</t>
-  </si>
-  <si>
-    <t>{"page": 1, "CurrentServerTime": "2015-08-01T00:00:00"}</t>
+    <t>applyTeam</t>
+  </si>
+  <si>
+    <t>{"UserName":["c3@3202.com","c4@3202.com","c5@3202.com"],"UserId":[53,51,47]}</t>
   </si>
 </sst>
 </file>
@@ -219,8 +231,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -292,12 +304,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -305,45 +355,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,27 +402,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,34 +423,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -428,13 +440,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,169 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,15 +631,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,6 +666,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -685,6 +699,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,26 +731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,10 +1274,10 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1514,16 +1526,16 @@
         <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>19</v>
@@ -1534,32 +1546,52 @@
     </row>
     <row r="10" ht="40.5" spans="1:14">
       <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="2"/>
+    <row r="11" ht="54" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="6:7">
       <c r="F12" s="9"/>
